--- a/Plan/Data_추출파일/005.틀린그림찾기테이블.xlsx
+++ b/Plan/Data_추출파일/005.틀린그림찾기테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28C3A15F-0F81-4544-ADBB-EAFCE10865B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36C390B-F8C4-4114-9BAB-B9B6D5F5062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFA0734C-5819-409F-B99B-B90D0A58988B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{643A0C98-6548-43F9-87FC-0F4320DEC60F}"/>
   </bookViews>
   <sheets>
     <sheet name="005.틀린그림찾기테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -153,7 +153,34 @@
     <t>d_map_1</t>
   </si>
   <si>
-    <t>spot1_0</t>
+    <t>spot1_1</t>
+  </si>
+  <si>
+    <t>spot2_1</t>
+  </si>
+  <si>
+    <t>spot3_1</t>
+  </si>
+  <si>
+    <t>spot4_1</t>
+  </si>
+  <si>
+    <t>spot5_1</t>
+  </si>
+  <si>
+    <t>spot6_1</t>
+  </si>
+  <si>
+    <t>spot7_1</t>
+  </si>
+  <si>
+    <t>spot8_1</t>
+  </si>
+  <si>
+    <t>spot9_1</t>
+  </si>
+  <si>
+    <t>spot10_1</t>
   </si>
   <si>
     <t>d_map_2</t>
@@ -637,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BD0195-FD3D-4320-9E69-DF2099561F7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98EBDF-6D8B-4F8C-A131-E1B9F80F6EB1}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM41"/>
   <sheetViews>
@@ -658,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -798,10 +825,91 @@
         <v>39</v>
       </c>
       <c r="K2">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="L2">
-        <v>650</v>
+        <v>-153</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>-256</v>
+      </c>
+      <c r="O2">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>379</v>
+      </c>
+      <c r="R2">
+        <v>102</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2">
+        <v>-175</v>
+      </c>
+      <c r="U2">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2">
+        <v>-420</v>
+      </c>
+      <c r="X2">
+        <v>192</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2">
+        <v>136</v>
+      </c>
+      <c r="AA2">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2">
+        <v>261</v>
+      </c>
+      <c r="AD2">
+        <v>205</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2">
+        <v>116</v>
+      </c>
+      <c r="AG2">
+        <v>-175</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2">
+        <v>-471</v>
+      </c>
+      <c r="AJ2">
+        <v>-221</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2">
+        <v>-194</v>
+      </c>
+      <c r="AM2">
+        <v>-210</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.3">
@@ -824,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -853,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -882,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -911,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -940,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -969,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -998,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -1027,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1056,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1085,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1114,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1143,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1172,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1201,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1230,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1259,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1288,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1317,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -1346,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1375,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -1404,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1433,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1462,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -1491,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -1520,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -1549,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -1578,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -1607,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -1636,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -1665,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -1694,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H33">
         <v>5</v>
@@ -1723,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -1752,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -1781,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -1810,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1839,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -1868,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -1897,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -1926,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41">
         <v>5</v>
